--- a/Message_Adress_Table.xlsx
+++ b/Message_Adress_Table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t>Decimal Adress</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>MPPT_ChargeCurrent</t>
+  </si>
+  <si>
+    <t>RotSen_RPM</t>
   </si>
 </sst>
 </file>
@@ -410,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1021,7 @@
         <v>030</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
